--- a/2016SuperRugby/Weekly Forecasts/Round_SF_Matrix.xlsx
+++ b/2016SuperRugby/Weekly Forecasts/Round_SF_Matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t>Chance of Winning</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>LY2</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>RSA</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,6 +746,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1250,6 +1257,24 @@
       <c r="F14" s="8">
         <f>B8*B10*B4</f>
         <v>0.10227987741500275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="54">
+        <f>F8+F10+F11</f>
+        <v>0.72374908920704217</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="54">
+        <f>F9</f>
+        <v>0.2762509107929576</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
